--- a/pred_ohlcv/54_21/2019-11-01 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>156010.289</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>156010.289</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>182553.3622999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1960863.586937001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1967434.824537001</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1939834.381137001</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2066653.025302965</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1993973.131402965</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1719503.347402965</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1539461.496402965</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1829895.471402965</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2159910.256002965</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>729448.3595970349</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>91985.04839703487</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>618388.2329970349</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>6457519.665990255</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>6267263.002590255</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>6881039.856290255</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>6558189.100890255</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>6543163.954290255</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>6466638.523187467</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>6466638.523187467</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5448350.488487467</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>5336584.900287467</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4703862.044887467</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>5021286.787787467</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>4514624.368287467</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1293031.738088693</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1301660.193788693</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1513249.752488693</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1160433.148800568</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1160473.098800568</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1213235.896275651</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1207721.579419311</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1207761.529419311</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1296296.953119311</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1293366.412419311</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1413886.987619311</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>156010.289</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>156010.289</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>182553.3622999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>247984.8259999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>294175.9090999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>291185.9090999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>215396.3955999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>63833.67159999994</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>51057.74099999994</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>135795.0046999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>259467.7625</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>258662.2812999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>283155.6234999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>238678.1689999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>238878.1857999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>239178.1857999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>239145.0024999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>164145.0024999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1960863.586937001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1967434.824537001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1939934.381137001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1939944.381137001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1939834.381137001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2198897.291837001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2287419.447737001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2287419.447737001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2287419.447737001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1954456.073737001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1435877.787937001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1435877.787937001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1435877.787937001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1484464.683637001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1564464.683637001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1564381.876337001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1392471.109237001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1310390.449737001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-899121.1727370007</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2066653.025302965</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1993973.131402965</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1719503.347402965</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1539461.496402965</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1829895.471402965</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2159910.256002965</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>729448.3595970349</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>91985.04839703487</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>618388.2329970349</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>6457519.665990255</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>6267263.002590255</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>6881039.856290255</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>6558189.100890255</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>6543163.954290255</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>6466638.523187467</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>6466638.523187467</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5448350.488487467</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>5336584.900287467</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1293031.738088693</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1301660.193788693</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1513249.752488693</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1160433.148800568</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1160473.098800568</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1213235.896275651</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1207721.579419311</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1207761.529419311</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1296296.953119311</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1293366.412419311</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1413886.987619311</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
